--- a/Doc/游戏系统/战斗系统.xlsx
+++ b/Doc/游戏系统/战斗系统.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\Doc\游戏系统\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="施工计划" sheetId="1" r:id="rId1"/>
-    <sheet name="职业大厅" sheetId="2" r:id="rId2"/>
+    <sheet name="职业" sheetId="2" r:id="rId2"/>
     <sheet name="万法之书" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>基本模块</t>
   </si>
@@ -81,127 +76,145 @@
 4.采集，偷取指定物资或宝箱</t>
   </si>
   <si>
+    <t>法术成分</t>
+  </si>
+  <si>
+    <t>施法时必须要拥有对应法术成分才能成功施法，成分包括：材料（消耗品），语言，姿势，器材(一般不会消耗)，法器（装备），消耗经验值/能力值（永久失去属性或者经验）</t>
+  </si>
+  <si>
+    <t>基本职业模板</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>牧师*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虔诚信奉某位神祇，牧师是连接凡人世界与神祇所在位面的中介人，因为是由神祇直接灌注神圣魔法（指从众神流入世界的力量），而非自己学习领悟，牧师要施放一个法术，无需研习和训练，他们只是作为一个导体来引导众神的力量，所以主属性是感知而非智力（感知神的存在，聆听神的教诲，同时也背负神所授予的艰辛任务）。
+牧师所掌握的魔法多种多样（医疗、鼓舞同伴，伤害、阻碍敌人，甚至降下瘟疫、诅咒，引导天堂之火），具体如何取决于他所信奉的神祇。
+</t>
+  </si>
+  <si>
+    <t>战士*</t>
+  </si>
+  <si>
+    <t>通常作为军队的一份子而存在，因此富有纪律性（可靠），并通过训练而熟练掌握一系列武器
+与护甲的使用技巧，主属性是力量或敏捷</t>
+  </si>
+  <si>
+    <t>术士*</t>
+  </si>
+  <si>
+    <t>凭借天赋或遗传血脉施行固有魔法，因魔法是与生俱来而非自行学习，所以主属性是魅力而非智力</t>
+  </si>
+  <si>
+    <t>法师*</t>
+  </si>
+  <si>
+    <t>学术派施法者，主属性是智力</t>
+  </si>
+  <si>
+    <t>盗贼*</t>
+  </si>
+  <si>
+    <t>使用潜行和诡计克服障碍、战胜敌人，主属性是敏捷</t>
+  </si>
+  <si>
+    <t>游侠</t>
+  </si>
+  <si>
+    <t>丛林中的游侠，善于同时运用武斗技术和自然魔法，主属性是敏捷和感知</t>
+  </si>
+  <si>
     <t>吟游诗人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本职业模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧师*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术士*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盗贼*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游侠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通过音乐和语言将一段段英雄史诗展现于世，吟游诗人是用魔力歌唱和演讲的大师，他们不擅长直接造成破坏，但善于间接影响他人，或激励伙伴，或削弱敌人，或操控心灵（魅惑），或创造幻象，所以主属性是魅力
+</t>
   </si>
   <si>
     <t>武僧x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善于利用身体的力量，重视身心的修炼，不假外物，所以主属性是敏捷和感知（感知内在的身心）</t>
   </si>
   <si>
     <t>狂战x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士富有纪律性，在一场战斗中冷静可靠，而狂战则不同，狂战士易于暴怒，不受控制，但也因此可以在战斗中进入狂暴状态（临时获得超人的力量和抗性），真正的猛男，主属性是力量</t>
+  </si>
+  <si>
+    <t>注：角色在冒险中获得经验值，当总经验值达到特定值，角色升级。
+升级主要是根据角色职业获得新的职业特性（并不一定会带来角色属性值的提升），具体提升视角色职业而定。</t>
+  </si>
+  <si>
+    <t>兼职（一名角色拥有多种职业）</t>
   </si>
   <si>
     <t>法术级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0环戏法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>防护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>豁免检定加1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>酸液球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1d3伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>侦测魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扫描法术或魔法物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>侦测毒性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>侦测一个生物或小型物体的毒性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阅读魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阅读卷轴与魔法书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>眩晕术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4hd以下人形生物失去一回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生命骰，无特殊加成下同等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术成分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法时必须要拥有对应法术成分才能成功施法，成分包括：材料（消耗品），语言，姿势，器材(一般不会消耗)，法器（装备），消耗经验值/能力值（永久失去属性或者经验）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,21 +223,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,31 +569,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -543,228 +1172,692 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="81" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="27" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="54" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="89.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="89.1" customHeight="1" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="63" customHeight="1" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="54.95" customHeight="1" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="69.95" customHeight="1" spans="1:3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="96.75" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" ht="39" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="54.75" customHeight="1" spans="1:9">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="54.75" customHeight="1" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="54.75" customHeight="1" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" ht="99.75" customHeight="1" spans="2:9">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" ht="56.25" customHeight="1" spans="1:9">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="56.25" customHeight="1" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" ht="56.25" customHeight="1" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" ht="38.25" customHeight="1" spans="2:9">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" ht="38.25" customHeight="1" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" ht="38.25" customHeight="1" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" ht="37.5" customHeight="1" spans="2:9">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" ht="37.5" customHeight="1" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" ht="37.5" customHeight="1" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" ht="34.5" customHeight="1" spans="2:9">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" ht="36.75" customHeight="1" spans="2:9">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" ht="36.75" customHeight="1" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" ht="36.75" customHeight="1" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" ht="26.25" customHeight="1" spans="2:9">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" ht="26.25" customHeight="1" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" ht="26.25" customHeight="1" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" ht="34.5" customHeight="1" spans="2:9">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" ht="24.75" customHeight="1" spans="2:9">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" ht="30" customHeight="1"/>
+    <row r="28" ht="27.75" customHeight="1" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="20">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B6:I8"/>
+    <mergeCell ref="B15:I17"/>
+    <mergeCell ref="B12:I14"/>
+    <mergeCell ref="B21:I23"/>
+    <mergeCell ref="B18:I20"/>
+    <mergeCell ref="B9:I11"/>
+    <mergeCell ref="A28:K31"/>
+    <mergeCell ref="A36:K44"/>
+    <mergeCell ref="B24:I26"/>
+    <mergeCell ref="B2:I4"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="基本的实现模板，职业基础培养倾向。标x的为后续加强职业，*的为重点实现职业" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="基本的实现模板，职业基础培养倾向。标x的为后续加强职业，*的为重点实现职业" sqref="A1 A3"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
@@ -772,97 +1865,98 @@
     <col min="5" max="5" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="30.75" customHeight="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" ht="43.5" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="2:3">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" spans="2:3">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="2:3">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="2:3">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>